--- a/bot.xlsx
+++ b/bot.xlsx
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB35" activeCellId="0" sqref="AB35"/>
+      <selection pane="topLeft" activeCell="R36" activeCellId="0" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2343,37 +2343,37 @@
       <c r="N26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="n">
+      <c r="A27" s="30" t="e">
         <f aca="false">INDEX(U34:U41, R35, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="B27" s="31" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="B27" s="31" t="e">
         <f aca="false">INDEX(V34:V41, R35, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="31" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="31" t="e">
         <f aca="false">INDEX(W34:W41, R35, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="31" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="31" t="e">
         <f aca="false">INDEX(X34:X41, R35, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="31" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="31" t="e">
         <f aca="false">INDEX(Y34:Y41, R35, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="31" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="31" t="e">
         <f aca="false">INDEX(Z34:Z41, R35, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="31" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="31" t="e">
         <f aca="false">INDEX(AA34:AA41, R35, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="31" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="31" t="e">
         <f aca="false">INDEX(AB34:AB41, R35, 1)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2615,9 +2615,9 @@
         <v>No</v>
       </c>
       <c r="Q35" s="43"/>
-      <c r="R35" s="23" t="n">
-        <f aca="false">MATCH("Yes",P33:P40, 0)</f>
-        <v>2</v>
+      <c r="R35" s="23" t="e">
+        <f aca="false">MATCH("Yes",Q33:Q40, 0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T35" s="44" t="s">
         <v>52</v>
@@ -2852,7 +2852,7 @@
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="55" t="n">
-        <f aca="false">IF(C39 &lt; 200, 1, 0)</f>
+        <f aca="false">IF(C39 &lt; 340, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I39" s="22" t="n">
@@ -2860,8 +2860,8 @@
         <v>0</v>
       </c>
       <c r="J39" s="21" t="n">
-        <f aca="false">IF(B58 &gt; 30, 1, 0)</f>
-        <v>0</v>
+        <f aca="false">IF(ABS(B58) &gt; 15, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="K39" s="56" t="n">
         <f aca="false">IF(C39 &gt; 1300, 1, 0)</f>
@@ -3560,12 +3560,12 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="46" t="n">
-        <f aca="false">B2 + SIGN(B2) * 90</f>
+        <f aca="false">B2 + SIGN(B2) * 110</f>
         <v>0</v>
       </c>
       <c r="B79" s="22" t="n">
-        <f aca="false">B3 + SIGN(M21) * 90</f>
-        <v>-90</v>
+        <f aca="false">B3 + SIGN(M21) * 110</f>
+        <v>-110</v>
       </c>
       <c r="C79" s="22" t="n">
         <f aca="false">A79-L2</f>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="D79" s="47" t="n">
         <f aca="false">B79-L3</f>
-        <v>3910</v>
+        <v>3890</v>
       </c>
       <c r="I79" s="33"/>
     </row>
